--- a/Star Regein/Star Regein/Earth.xlsx
+++ b/Star Regein/Star Regein/Earth.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Ster Regein\Star Regein\Star Regein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,7 +72,17 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="330">
+  <dxfs count="165">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -151,6 +161,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -227,6 +247,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -303,6 +333,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -379,6 +419,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -455,6 +505,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -531,6 +591,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -607,6 +677,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -683,6 +763,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -759,6 +849,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -835,6 +935,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -911,6 +1021,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -987,6 +1107,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1063,6 +1193,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1139,1369 +1279,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2598,222 +1380,176 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1390649" y="457200"/>
-          <a:ext cx="1333501" cy="3752850"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743201" y="466725"/>
-          <a:ext cx="1333499" cy="3752850"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57151</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1371600" y="1981200"/>
-          <a:ext cx="3419475" cy="2228850"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="638175" y="428625"/>
+          <a:ext cx="4143376" cy="3762375"/>
+          <a:chOff x="647700" y="457200"/>
+          <a:chExt cx="4143376" cy="3762375"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="647700" y="1962150"/>
-          <a:ext cx="4143376" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="647700" y="1971675"/>
-          <a:ext cx="3400425" cy="2238375"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1390649" y="457200"/>
+            <a:ext cx="1333501" cy="3752850"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2743201" y="466725"/>
+            <a:ext cx="1333499" cy="3752850"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1371600" y="1981200"/>
+            <a:ext cx="3419475" cy="2228850"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="647700" y="1962150"/>
+            <a:ext cx="4143376" cy="28575"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="647700" y="1971675"/>
+            <a:ext cx="3400425" cy="2238375"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3085,7 +1821,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3095,129 +1831,129 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Q1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="R1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="S1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="T1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="U1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="V1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="W1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="X1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Y1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Z1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AA1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AB1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AC1">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3235,69 +1971,69 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3333,85 +2069,85 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
@@ -3428,45 +2164,45 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3520,39 +2256,39 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3612,33 +2348,33 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3704,88 +2440,88 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
       <c r="X8">
         <v>0</v>
       </c>
@@ -3796,73 +2532,73 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
@@ -3885,61 +2621,61 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
@@ -3956,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -3977,18 +2713,18 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4009,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4045,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -4066,18 +2802,18 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4155,43 +2891,43 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
@@ -4247,82 +2983,82 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14">
+        <v>99</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
         <v>0</v>
       </c>
@@ -4336,12 +3072,12 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4392,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -4425,12 +3161,12 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4514,28 +3250,28 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -4546,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4603,85 +3339,85 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>1</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
       <c r="Z18">
         <v>0</v>
       </c>
@@ -4689,64 +3425,64 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>1</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
       <c r="R19">
         <v>0</v>
       </c>
@@ -4757,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4778,25 +3514,25 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
         <v>0</v>
       </c>
@@ -4810,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4846,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -4867,79 +3603,79 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>1</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
       <c r="W21">
         <v>0</v>
       </c>
@@ -4953,24 +3689,24 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5042,37 +3778,37 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23">
+        <v>99</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -5128,64 +3864,64 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24">
+        <v>99</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>1</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0</v>
       </c>
@@ -5214,39 +3950,39 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5300,82 +4036,82 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26">
+        <v>99</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>1</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
         <v>0</v>
       </c>
@@ -5386,54 +4122,54 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5469,69 +4205,69 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5549,173 +4285,178 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="319" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="316" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="314" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="312" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="311" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AO40 A1:AN29">
-    <cfRule type="cellIs" dxfId="310" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
       <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="154" priority="1" operator="equal">
+      <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
